--- a/data/financial_statements/soci/MSCI.xlsx
+++ b/data/financial_statements/soci/MSCI.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,129 +610,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>560639000</v>
@@ -633,7 +744,7 @@
         <v>559945000</v>
       </c>
       <c r="E2">
-        <v>549842000</v>
+        <v>549841900</v>
       </c>
       <c r="F2">
         <v>517099000</v>
@@ -742,8 +853,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.0842</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>128920000</v>
+        <v>98418000</v>
       </c>
       <c r="C4">
-        <v>129712000</v>
+        <v>100768000</v>
       </c>
       <c r="D4">
-        <v>131025000</v>
+        <v>102771000</v>
       </c>
       <c r="E4">
-        <v>124855000</v>
+        <v>95903000</v>
       </c>
       <c r="F4">
-        <v>110588000</v>
+        <v>89674000</v>
       </c>
       <c r="G4">
         <v>87327000</v>
@@ -986,23 +1097,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>431719000</v>
+        <v>462221000</v>
       </c>
       <c r="C5">
-        <v>422094000</v>
+        <v>451038000</v>
       </c>
       <c r="D5">
-        <v>428920000</v>
+        <v>457174000</v>
       </c>
       <c r="E5">
-        <v>424987000</v>
+        <v>453938900</v>
       </c>
       <c r="F5">
-        <v>406511000</v>
+        <v>427425000</v>
       </c>
       <c r="G5">
         <v>410853000</v>
@@ -1108,8 +1219,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>25941000</v>
@@ -1212,8 +1323,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>96247000</v>
@@ -1334,8 +1445,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>309531000</v>
@@ -1456,8 +1567,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>44162000</v>
@@ -1497,23 +1608,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>3938000</v>
+        <v>44162000</v>
       </c>
       <c r="C10">
-        <v>924000</v>
+        <v>41085000</v>
       </c>
       <c r="D10">
-        <v>298000</v>
+        <v>40714000</v>
       </c>
       <c r="E10">
-        <v>368000</v>
+        <v>40336000</v>
       </c>
       <c r="F10">
-        <v>396000</v>
+        <v>42137000</v>
       </c>
       <c r="G10">
         <v>39557000</v>
@@ -1619,23 +1730,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>825000</v>
+        <v>-40327000</v>
       </c>
       <c r="C11">
-        <v>1631000</v>
+        <v>-40349000</v>
       </c>
       <c r="D11">
-        <v>1693000</v>
+        <v>-40035000</v>
       </c>
       <c r="E11">
-        <v>5144000</v>
+        <v>-34824000</v>
       </c>
       <c r="F11">
-        <v>-37839000</v>
+        <v>-79580000</v>
       </c>
       <c r="G11">
         <v>-61838000</v>
@@ -1741,8 +1852,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>269204000</v>
@@ -1863,8 +1974,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>52612000</v>
@@ -1985,8 +2096,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>216592000</v>
@@ -2107,8 +2218,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2154,8 +2265,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>216592000</v>
@@ -2167,7 +2278,7 @@
         <v>228423000</v>
       </c>
       <c r="E16">
-        <v>193865000</v>
+        <v>193864900</v>
       </c>
       <c r="F16">
         <v>169876000</v>
@@ -2276,23 +2387,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="C17">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
       <c r="D17">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="E17">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="F17">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="G17">
         <v>2.01</v>
@@ -2398,8 +2509,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>2.68</v>
@@ -2520,8 +2631,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>80500000</v>
@@ -2533,7 +2644,7 @@
         <v>81591000</v>
       </c>
       <c r="E19">
-        <v>82473000</v>
+        <v>82508000</v>
       </c>
       <c r="F19">
         <v>82470000</v>
@@ -2642,8 +2753,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>80874000</v>
@@ -2655,7 +2766,7 @@
         <v>82286000</v>
       </c>
       <c r="E20">
-        <v>83578000</v>
+        <v>83479000</v>
       </c>
       <c r="F20">
         <v>83554000</v>
@@ -2764,23 +2875,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.77</v>
+        <v>0.8245</v>
       </c>
       <c r="C21">
-        <v>0.7649</v>
+        <v>0.8174</v>
       </c>
       <c r="D21">
-        <v>0.766</v>
+        <v>0.8165</v>
       </c>
       <c r="E21">
-        <v>0.7729</v>
+        <v>0.8256</v>
       </c>
       <c r="F21">
-        <v>0.7861</v>
+        <v>0.8266</v>
       </c>
       <c r="G21">
         <v>0.8247</v>
@@ -2886,8 +2997,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.5521</v>
@@ -3008,8 +3119,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.4802</v>
@@ -3130,8 +3241,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.3863</v>
@@ -3252,23 +3363,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>347025000</v>
+        <v>347358000</v>
       </c>
       <c r="C25">
-        <v>337343000</v>
+        <v>336728000</v>
       </c>
       <c r="D25">
-        <v>324836000</v>
+        <v>324927000</v>
       </c>
       <c r="E25">
-        <v>315916000</v>
+        <v>317180900</v>
       </c>
       <c r="F25">
-        <v>307270000</v>
+        <v>308588000</v>
       </c>
       <c r="G25">
         <v>302183000</v>
@@ -3374,8 +3485,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>309531000</v>
@@ -3496,8 +3607,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>216592000</v>
@@ -3618,8 +3729,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AC28">
         <v>-593000</v>
@@ -3653,8 +3764,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>216592000</v>
@@ -3775,8 +3886,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2.6906</v>
@@ -3897,8 +4008,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2.6781</v>
@@ -4019,8 +4130,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AC32">
         <v>-0.01</v>
@@ -4054,8 +4165,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AC33">
         <v>-0.01</v>
@@ -4089,8 +4200,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>2.6906</v>
@@ -4211,8 +4322,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2.6781</v>
@@ -4333,8 +4444,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>80874000</v>
@@ -4455,23 +4566,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.619</v>
+        <v>0.6196</v>
       </c>
       <c r="C37">
-        <v>0.6113</v>
+        <v>0.6102</v>
       </c>
       <c r="D37">
-        <v>0.5800999999999999</v>
+        <v>0.5803</v>
       </c>
       <c r="E37">
-        <v>0.5746</v>
+        <v>0.5769</v>
       </c>
       <c r="F37">
-        <v>0.5942</v>
+        <v>0.5968</v>
       </c>
       <c r="G37">
         <v>0.6066</v>
@@ -4577,23 +4688,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.5877</v>
+        <v>0.5763</v>
       </c>
       <c r="C38">
-        <v>0.3991</v>
+        <v>0.3854</v>
       </c>
       <c r="D38">
-        <v>0.446</v>
+        <v>0.4361</v>
       </c>
       <c r="E38">
-        <v>0.5203</v>
+        <v>0.5086000000000001</v>
       </c>
       <c r="F38">
-        <v>0.4262</v>
+        <v>0.4175</v>
       </c>
       <c r="G38">
         <v>0.4518</v>
